--- a/Program/Other/URS會議審查紀錄/DbLayouts/L5-管理性作業/PfCoOfficer.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L5-管理性作業/PfCoOfficer.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2EFA982-4951-4BD4-8610-54691319A4F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8385A58B-F606-4A1B-B225-F91F98C0CA71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -160,194 +160,194 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>1: 初級
-2: 中級
-3: 高級</t>
+    <t>EmpNo = ,AND EffectiveDate &gt;= ,AND EffectiveDate &lt;=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectiveDate Desc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findByEmpNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">EmpNo = </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectiveDate</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>員工代號</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>生效日期</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>初階授信通過</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>IneffectiveDate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>停效日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/25新加欄位，舊資料、轉換資料設為2910/12/31</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>findByEmpNoFirst</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AreaCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DistCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeptCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>單位代號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>區部代號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>部室代號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4/27新增，紀錄資料新增當下該員工所屬單位代號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4/27新增，紀錄資料新增當下該員工所屬區部代號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4/27新增，紀錄資料新增當下該員工所屬部室代號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4/27新增，紀錄資料新增當下該員工所屬單位中文</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4/27新增，紀錄資料新增當下該員工所屬區部中文</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4/27新增，紀錄資料新增當下該員工所屬部室中文</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AreaItem</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DistItem</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeptItem</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>單位中文</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>區部中文</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>部室中文</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EmpNo</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>effectiveDateFirst</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findByEffectiveDateDate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectiveDate &gt;= ,AND EffectiveDate &lt;=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EmpNo Asc ,EffectiveDate Desc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>effectiveDateEq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findNotYet</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectiveDate &gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findOutOf</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findIng</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IneffectiveDate &lt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">EffectiveDate &gt;= </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVARCHAR2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-10-08智偉修改為NVARCHAR2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:初級
+2:中級
+3:高級</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>輸入Y or spaces
-Y: 通過</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EmpNo = ,AND EffectiveDate &gt;= ,AND EffectiveDate &lt;=</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>EffectiveDate Desc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>findByEmpNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">EmpNo = </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>EffectiveDate</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>員工代號</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>生效日期</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>初階授信通過</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>IneffectiveDate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>停效日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3/25新加欄位，舊資料、轉換資料設為2910/12/31</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>findByEmpNoFirst</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AreaCode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DistCode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DeptCode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>單位代號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>區部代號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>部室代號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4/27新增，紀錄資料新增當下該員工所屬單位代號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4/27新增，紀錄資料新增當下該員工所屬區部代號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4/27新增，紀錄資料新增當下該員工所屬部室代號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4/27新增，紀錄資料新增當下該員工所屬單位中文</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4/27新增，紀錄資料新增當下該員工所屬區部中文</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4/27新增，紀錄資料新增當下該員工所屬部室中文</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AreaItem</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DistItem</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DeptItem</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>單位中文</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>區部中文</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>部室中文</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EmpNo</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>effectiveDateFirst</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>findByEffectiveDateDate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>EffectiveDate &gt;= ,AND EffectiveDate &lt;=</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>EmpNo Asc ,EffectiveDate Desc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>effectiveDateEq</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>findNotYet</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>EffectiveDate &gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>findOutOf</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>findIng</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>IneffectiveDate &lt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">EffectiveDate &gt;= </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVARCHAR2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021-10-08智偉修改為NVARCHAR2</t>
+Y:通過</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -963,7 +963,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1093,10 +1093,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>31</v>
@@ -1110,10 +1110,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="20" t="s">
         <v>42</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>44</v>
       </c>
       <c r="D10" s="19" t="s">
         <v>25</v>
@@ -1127,10 +1127,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D11" s="25" t="s">
         <v>25</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="F11" s="28"/>
       <c r="G11" s="29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -1148,20 +1148,20 @@
         <v>4</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E12" s="27">
         <v>6</v>
       </c>
       <c r="F12" s="28"/>
       <c r="G12" s="29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -1169,20 +1169,20 @@
         <v>5</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C13" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="25" t="s">
         <v>54</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>56</v>
       </c>
       <c r="E13" s="27">
         <v>6</v>
       </c>
       <c r="F13" s="28"/>
       <c r="G13" s="29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -1190,20 +1190,20 @@
         <v>6</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E14" s="27">
         <v>6</v>
       </c>
       <c r="F14" s="28"/>
       <c r="G14" s="29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -1211,23 +1211,23 @@
         <v>7</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E15" s="27">
         <v>20</v>
       </c>
       <c r="F15" s="28"/>
       <c r="G15" s="29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -1235,23 +1235,23 @@
         <v>8</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E16" s="27">
         <v>20</v>
       </c>
       <c r="F16" s="28"/>
       <c r="G16" s="29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -1259,23 +1259,23 @@
         <v>9</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E17" s="27">
         <v>20</v>
       </c>
       <c r="F17" s="28"/>
       <c r="G17" s="29" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
@@ -1295,7 +1295,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
@@ -1306,7 +1306,7 @@
         <v>21</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D19" s="19" t="s">
         <v>31</v>
@@ -1315,7 +1315,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -1428,90 +1428,90 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
